--- a/fixtures/01 - prices.xlsx
+++ b/fixtures/01 - prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4FCB65-8279-4BFA-913B-95F7848BEEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BB3B90-5B71-4339-AF8B-ACDA7B1ED6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2490" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="2835" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>tab</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>prices</t>
+  </si>
+  <si>
+    <t>JX-BMD9-GYJXO7</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C36761-E560-4615-98DB-D2A406A4AE09}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +510,17 @@
         <v>12.5</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/fixtures/01 - prices.xlsx
+++ b/fixtures/01 - prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BB3B90-5B71-4339-AF8B-ACDA7B1ED6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663823B-43E4-4D26-B685-96FDE110B146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="2835" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26265" yWindow="2310" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>tab</t>
   </si>
@@ -67,7 +67,10 @@
     <t>prices</t>
   </si>
   <si>
-    <t>JX-BMD9-GYJXO7</t>
+    <t>welcome-gift.user</t>
+  </si>
+  <si>
+    <t>welcome-gift.root</t>
   </si>
 </sst>
 </file>
@@ -132,13 +135,16 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="import" xfId="2" xr:uid="{DD1BC027-BC6C-4B34-B536-A533FDE94B7A}"/>
@@ -459,7 +465,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,36 +495,36 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>12.5</v>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
